--- a/Results/Results_NASDAQ_horizon1.xlsx
+++ b/Results/Results_NASDAQ_horizon1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -585,22 +585,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.34 (0.19)</t>
+          <t>0.35 (0.19)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.33 (0.81)</t>
+          <t>1.38 (0.80)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.03 (0.01)</t>
+          <t>0.03 (0.02)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>48.86 (9.27)</t>
+          <t>44.55 (7.82)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -610,31 +610,31 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>max\_depth: 8, max\_features: 2 \\</t>
+          <t>max\_depth: 16, max\_features: 4 \\</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[0.18411674 0.37622156 0.37910645 0.25733102 0.46295094 0.15035055
- 0.16588826 0.79230543 0.17979544 0.42848767]</t>
+          <t>[0.20496112 0.46335277 0.37970513 0.26944312 0.46292901 0.18376207
+ 0.14766688 0.7940814  0.17909411 0.42066248]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[0.70738327 1.32276466 1.65623416 1.02660331 1.66359454 0.56086176
- 0.65347537 3.38456664 0.64455136 1.70081968]</t>
+          <t>[0.78746813 1.62911097 1.65884968 1.07492362 1.66351575 0.68549877
+ 0.58169678 3.39215321 0.64203716 1.66975871]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[0.04468242 0.04158721 0.04119589 0.02495639 0.04733613 0.01202127
- 0.01043064 0.0395168  0.0108203  0.02568575]</t>
+          <t>[0.04853178 0.05157541 0.04134426 0.02695179 0.04732137 0.01590833
+ 0.009113   0.03973239 0.01096023 0.02536171]</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[47.72727273 45.45454545 40.90909091 50.         36.36363636 52.27272727
- 70.45454545 38.63636364 52.27272727 54.54545455]</t>
+          <t>[40.90909091 40.90909091 43.18181818 45.45454545 34.09090909 36.36363636
+ 59.09090909 38.63636364 52.27272727 54.54545455]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Regression Tree &amp; 0.34 $\pm$ 0.19 &amp; 1.33 $\pm$ 0.81 &amp; 0.03 $\pm$ 1.41 &amp; 48.86 $\pm$ 9.27 &amp; "-"</t>
+          <t>Regression Tree &amp; 0.35 $\pm$ 0.19 &amp; 1.38 $\pm$ 0.80 &amp; 0.03 $\pm$ 1.53 &amp; 44.55 $\pm$ 7.82 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -659,12 +659,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.34 (0.21)</t>
+          <t>0.33 (0.21)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.33 (0.92)</t>
+          <t>1.32 (0.91)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -674,7 +674,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>45.91 (8.31)</t>
+          <t>46.82 (9.10)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -684,31 +684,31 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>max\_depth: 8, max\_features: 2, n\_estimators: 100 \\</t>
+          <t>max\_depth: 8, max\_features: 2, n\_estimators: 200 \\</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[0.11460207 0.39868748 0.41041942 0.20546312 0.48638643 0.13620815
- 0.13246446 0.84861569 0.22062304 0.40406994]</t>
+          <t>[0.12007753 0.39682153 0.40437587 0.2087042  0.47996518 0.13800698
+ 0.13390215 0.84392832 0.20820714 0.40528561]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[0.44030537 1.40175304 1.79303379 0.8196801  1.74780899 0.50810548
- 0.52181064 3.62511251 0.79091484 1.60389704]</t>
+          <t>[0.46134229 1.39519252 1.76663081 0.83261016 1.72473449 0.51481577
+ 0.52747404 3.60508903 0.74640489 1.60872247]</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[0.02818934 0.044597   0.04492042 0.01880725 0.05047826 0.01195013
- 0.00855858 0.04254809 0.01395962 0.02451033]</t>
+          <t>[0.0301303  0.04417183 0.0441001  0.01921719 0.0495712  0.01219155
+ 0.00876818 0.04229965 0.013101   0.02457366]</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[50.         43.18181818 40.90909091 43.18181818 36.36363636 38.63636364
- 61.36363636 36.36363636 56.81818182 52.27272727]</t>
+          <t>[52.27272727 43.18181818 40.90909091 43.18181818 38.63636364 38.63636364
+ 65.90909091 36.36363636 56.81818182 52.27272727]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Random Forest &amp; 0.34 $\pm$ 0.21 &amp; 1.33 $\pm$ 0.92 &amp; 0.03 $\pm$ 1.48 &amp; 45.91 $\pm$ 8.31 &amp; "-"</t>
+          <t>Random Forest &amp; 0.33 $\pm$ 0.21 &amp; 1.32 $\pm$ 0.91 &amp; 0.03 $\pm$ 1.46 &amp; 46.82 $\pm$ 9.10 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -837,20 +837,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[0.28524336 0.96188705 1.26086592 1.10891683 1.73504043 1.50729906
- 1.65447655 3.49419276 2.12260689 2.66306649]</t>
+          <t>[0.28524336 0.96188705 1.26086592 1.10891683 1.73504044 1.50729906
+ 1.65447655 3.49419274 2.12260695 2.6630668 ]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[ 1.09591547  3.3819173   5.50845083  4.42394268  6.23479416  5.62276882
-  6.51739693 14.92647624  7.60936518 10.57065625]</t>
+          <t>[ 1.09591547  3.3819173   5.50845083  4.42394267  6.23479416  5.6227688
+  6.51739691 14.92647615  7.60936538 10.57065746]</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>[0.06792768 0.1251942  0.16191793 0.14126718 0.21521862 0.16156749
- 0.13433346 0.18148927 0.15498936 0.1806702 ]</t>
+ 0.13433346 0.18148927 0.15498936 0.18067022]</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -881,22 +881,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.38 (0.76)</t>
+          <t>0.34 (0.20)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.43 (3.21)</t>
+          <t>1.34 (0.87)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.12 (0.03)</t>
+          <t>0.03 (0.01)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>46.36 (6.36)</t>
+          <t>47.27 (8.79)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -906,31 +906,31 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>learning\_rate: 0.01, max\_depth: 8, max\_features: 4, n\_estimators: 50 \\</t>
+          <t>learning\_rate: 0.1, max\_depth: 2, max\_features: 4, n\_estimators: 150 \\</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[0.17992525 0.79716058 0.96575805 0.85338817 1.29024894 1.19694508
- 1.51783828 2.98438167 1.83549428 2.21256998]</t>
+          <t>[0.15288815 0.39629283 0.39783761 0.23246148 0.48505556 0.13724762
+ 0.1549543  0.82821967 0.19827502 0.41553508]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[ 0.69127943  2.80275232  4.21918826  3.40452974  4.63645478  4.46503657
-  5.97914459 12.74866759  6.58009087  8.7824757 ]</t>
+          <t>[0.5874019  1.39333365 1.73806658 0.92738808 1.74302657 0.5119831
+ 0.61040374 3.53798491 0.7107991  1.64940625]</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[0.0431288  0.10228259 0.12325241 0.1087962  0.15978645 0.12994685
- 0.12478929 0.15552668 0.13619037 0.15124824]</t>
+          <t>[0.03686925 0.04443499 0.04302773 0.02132715 0.05033137 0.01216784
+ 0.01027256 0.04145578 0.01245311 0.02519103]</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>[52.27272727 40.90909091 40.90909091 45.45454545 38.63636364 45.45454545
- 56.81818182 38.63636364 50.         54.54545455]</t>
+          <t>[59.09090909 40.90909091 43.18181818 43.18181818 36.36363636 43.18181818
+ 61.36363636 36.36363636 54.54545455 54.54545455]</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>GBM \cite{friedman2001greedy} &amp; 1.38 $\pm$ 0.76 &amp; 5.43 $\pm$ 3.21 &amp; 0.12 $\pm$ 3.23 &amp; 46.36 $\pm$ 6.36 &amp; "-"</t>
+          <t>GBM \cite{friedman2001greedy} &amp; 0.34 $\pm$ 0.20 &amp; 1.34 $\pm$ 0.87 &amp; 0.03 $\pm$ 1.44 &amp; 47.27 $\pm$ 8.79 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1133,20 +1133,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[0.07452197 0.10820491 0.12687605 0.11088655 0.0850259  0.13767486
- 0.12131611 0.15716762 0.12789488 0.18966465]</t>
+          <t>[0.07408844 0.10732514 0.126494   0.11086129 0.08508423 0.13760073
+ 0.12105269 0.15636172 0.1287847  0.18889349]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[0.28631613 0.38043974 0.55429407 0.44237377 0.30553696 0.51357686
- 0.47789451 0.67138788 0.45849225 0.75284633]</t>
+          <t>[0.2846505  0.37734654 0.55262496 0.44227303 0.30574658 0.51330032
+ 0.47685682 0.66794527 0.46168219 0.7497853 ]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>[0.01741056 0.01122918 0.01358812 0.01101145 0.00805442 0.0119648
- 0.00769402 0.00656726 0.00762087 0.01075658]</t>
+          <t>[0.01711546 0.01101157 0.01374063 0.0110274  0.00806767 0.01202528
+ 0.00767537 0.00654534 0.00769645 0.01068779]</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.15 (0.02)</t>
+          <t>0.15 (0.03)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.59 (0.11)</t>
+          <t>0.59 (0.13)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>47.05 (7.94)</t>
+          <t>47.27 (7.79)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[0.13488896 0.15224086 0.16476797 0.13682327 0.12425482 0.15730656
- 0.14713052 0.16166176 0.13362663 0.21131498]</t>
+          <t>[0.13369556 0.16202627 0.17505674 0.13171081 0.10242622 0.15704753
+ 0.13930942 0.16124005 0.13357193 0.21096066]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[0.51824835 0.53526658 0.71983566 0.54584644 0.44650441 0.58681017
- 0.5795839  0.69058593 0.4790401  0.83878415]</t>
+          <t>[0.51366324 0.56967131 0.76478509 0.52545065 0.36806429 0.58584389
+ 0.54877466 0.68878449 0.47884401 0.83737777]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>[0.03101827 0.01720965 0.01567191 0.01442804 0.01310235 0.0138799
- 0.00910354 0.0068018  0.00799068 0.01219899]</t>
+          <t>[0.03082888 0.01937584 0.01626329 0.01346307 0.0098729  0.01385542
+ 0.00875803 0.00677773 0.00796475 0.01215811]</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>[31.81818182 50.         56.81818182 40.90909091 54.54545455 36.36363636
+          <t>[31.81818182 50.         56.81818182 43.18181818 54.54545455 36.36363636
  45.45454545 47.72727273 54.54545455 52.27272727]</t>
         </is>
       </c>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>CNN &amp; 0.15 $\pm$ 0.02 &amp; 0.59 $\pm$ 0.11 &amp; 0.01 $\pm$ 0.65 &amp; 47.05 $\pm$ 7.94 &amp; "-"</t>
+          <t>CNN &amp; 0.15 $\pm$ 0.03 &amp; 0.59 $\pm$ 0.13 &amp; 0.01 $\pm$ 0.67 &amp; 47.27 $\pm$ 7.79 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1251,12 +1251,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.13 (1.16)</t>
+          <t>2.11 (1.17)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.34 (4.84)</t>
+          <t>8.29 (4.88)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>43.18 (4.55)</t>
+          <t>40.91 (6.74)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1281,25 +1281,25 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[0.25737187 1.16904487 1.37078499 1.34982518 1.85989704 1.99885503
- 2.47307114 4.4176684  2.96603742 3.3997322 ]</t>
+          <t>[0.257371   1.02853536 1.36976716 1.35005332 1.85450939 2.00010606
+ 2.48385243 4.40431997 2.96508147 3.4172416 ]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[ 0.98883217  4.1102675   5.98866347  5.38502891  6.68346108  7.45644975
-  9.74204574 18.87137516 10.63299189 13.49474395]</t>
+          <t>[ 0.98882881  3.6162474   5.98421682  5.38593907  6.66410079  7.46111654
+  9.78451595 18.8143534  10.6295649  13.56424498]</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>[0.06588994 0.14975447 0.17763402 0.17545832 0.2336429  0.21807826
- 0.20380188 0.23065833 0.22071166 0.23324664]</t>
+          <t>[0.06587331 0.13565794 0.17749776 0.1754892  0.2329486  0.21821774
+ 0.20470152 0.229959   0.22063976 0.23445593]</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>[38.63636364 43.18181818 38.63636364 40.90909091 43.18181818 47.72727273
+          <t>[38.63636364 27.27272727 38.63636364 40.90909091 36.36363636 47.72727273
  52.27272727 36.36363636 45.45454545 45.45454545]</t>
         </is>
       </c>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>RNN &amp; 2.13 $\pm$ 1.16 &amp; 8.34 $\pm$ 4.84 &amp; 0.19 $\pm$ 4.97 &amp; 43.18 $\pm$ 4.55 &amp; "-"</t>
+          <t>RNN &amp; 2.11 $\pm$ 1.17 &amp; 8.29 $\pm$ 4.88 &amp; 0.19 $\pm$ 5.11 &amp; 40.91 $\pm$ 6.74 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1325,22 +1325,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.55 (1.18)</t>
+          <t>1.73 (0.91)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.14 (5.02)</t>
+          <t>6.67 (3.47)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.15 (0.08)</t>
+          <t>0.17 (0.06)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>46.14 (8.32)</t>
+          <t>41.14 (7.43)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1355,26 +1355,26 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[0.25737484 1.04507192 1.36233416 1.34894667 1.81746783 2.00170427
- 2.45111977 4.40536461 0.34594814 0.43002339]</t>
+          <t>[0.25738154 1.01394809 1.36043134 1.34740202 1.84746831 1.95668181
+ 2.47467892 0.83360313 2.86031691 3.35031548]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[ 0.98884358  3.67438861  5.95174365  5.38152419  6.53099349  7.46707845
-  9.65557383 18.81881587  1.24019467  1.70691549]</t>
+          <t>[ 0.98886934  3.56495973  5.94343063  5.37536192  6.63879897  7.29912844
+  9.74837919  3.56098193 10.25399283 13.29859146]</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>[0.06592547 0.13804028 0.1765026  0.17533941 0.22816597 0.21839592
- 0.20197005 0.23001373 0.02279147 0.02594346]</t>
+          <t>[0.06597155 0.13355386 0.17624782 0.17513032 0.23203948 0.2133766
+ 0.20393604 0.04180822 0.21275922 0.22983296]</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>[34.09090909 34.09090909 38.63636364 47.72727273 50.         43.18181818
- 47.72727273 50.         54.54545455 61.36363636]</t>
+          <t>[36.36363636 27.27272727 38.63636364 50.         36.36363636 40.90909091
+ 50.         52.27272727 43.18181818 36.36363636]</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>LSTM &amp; 1.55 $\pm$ 1.18 &amp; 6.14 $\pm$ 5.02 &amp; 0.15 $\pm$ 7.75 &amp; 46.14 $\pm$ 8.32 &amp; "-"</t>
+          <t>LSTM &amp; 1.73 $\pm$ 0.91 &amp; 6.67 $\pm$ 3.47 &amp; 0.17 $\pm$ 6.40 &amp; 41.14 $\pm$ 7.43 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1399,17 +1399,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.01 (0.60)</t>
+          <t>0.71 (0.71)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.95 (2.51)</t>
+          <t>2.86 (3.06)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.09 (0.04)</t>
+          <t>0.06 (0.04)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1429,20 +1429,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[0.25892526 0.37193651 0.30964478 0.88245184 1.22750372 0.96967935
- 0.97140709 2.01411062 1.02175833 2.06590011]</t>
+          <t>[0.2575417  0.2888877  0.46221534 0.88670361 0.46289414 0.99673433
+ 0.33310959 2.71360058 0.47315734 0.25850606]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[0.99480036 1.30769878 1.35277115 3.52047714 4.4109825  3.61725348
- 3.82661548 8.60386831 3.66291672 8.20029089]</t>
+          <t>[ 0.98948467  1.01570585  2.01931897  3.53743925  1.66339044  3.71817832
+  1.31220197 11.59194623  1.69622883  1.02610233]</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>[0.06740556 0.04177462 0.03678123 0.11159905 0.15152355 0.10393545
- 0.07834246 0.1048234  0.07410296 0.14096348]</t>
+          <t>[0.06534444 0.0338046  0.05233937 0.11218838 0.05214697 0.10532049
+ 0.02130084 0.14130503 0.02921956 0.01428673]</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>GRU &amp; 1.01 $\pm$ 0.60 &amp; 3.95 $\pm$ 2.51 &amp; 0.09 $\pm$ 3.65 &amp; 40.91 $\pm$ 6.74 &amp; "-"</t>
+          <t>GRU &amp; 0.71 $\pm$ 0.71 &amp; 2.86 $\pm$ 3.06 &amp; 0.06 $\pm$ 4.08 &amp; 40.91 $\pm$ 6.74 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1478,17 +1478,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.54 (0.14)</t>
+          <t>0.53 (0.15)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.01 (0.01)</t>
+          <t>0.01 (0.00)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>48.18 (5.64)</t>
+          <t>47.73 (5.93)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1503,26 +1503,26 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[0.11062535 0.13364461 0.15260551 0.12112162 0.09163398 0.14531535
- 0.12560092 0.1670258  0.13551809 0.20140582]</t>
+          <t>[0.10367906 0.11451467 0.15480673 0.11819293 0.08767698 0.14939313
+ 0.12530307 0.16757271 0.1351844  0.20040102]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[0.42502666 0.46988367 0.66670052 0.48320585 0.32928283 0.54207865
- 0.49477343 0.71350002 0.48582081 0.7994512 ]</t>
+          <t>[0.39833876 0.40262434 0.67631715 0.47152207 0.31506349 0.55729022
+ 0.49360012 0.71583632 0.48462458 0.7954628 ]</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>[0.0254502  0.01450666 0.01504839 0.01173321 0.00889164 0.01278683
- 0.00809412 0.00694538 0.00802988 0.01160419]</t>
+          <t>[0.02356835 0.0123435  0.01644601 0.01146146 0.00849275 0.01316071
+ 0.00806713 0.00696876 0.00802606 0.01154735]</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>[38.63636364 52.27272727 50.         47.72727273 47.72727273 38.63636364
- 45.45454545 52.27272727 56.81818182 52.27272727]</t>
+          <t>[38.63636364 52.27272727 50.         47.72727273 47.72727273 36.36363636
+ 45.45454545 50.         56.81818182 52.27272727]</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>WaveNet &amp; 0.14 $\pm$ 0.03 &amp; 0.54 $\pm$ 0.14 &amp; 0.01 $\pm$ 0.51 &amp; 48.18 $\pm$ 5.64 &amp; "-"</t>
+          <t>WaveNet &amp; 0.14 $\pm$ 0.03 &amp; 0.53 $\pm$ 0.15 &amp; 0.01 $\pm$ 0.47 &amp; 47.73 $\pm$ 5.93 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1547,12 +1547,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.12 (0.02)</t>
+          <t>0.13 (0.03)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.48 (0.11)</t>
+          <t>0.49 (0.12)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1562,51 +1562,51 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>48.18 (8.79)</t>
+          <t>49.09 (8.52)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4 (0)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>omega: 100, r: 0.1 \\</t>
+          <t>omega: 50, r: 0.1 \\</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[0.08809869 0.12736268 0.12407972 0.10865849 0.08562567 0.13466238
- 0.11974856 0.13900619 0.12055    0.17693393]</t>
+          <t>[0.08720635 0.13334578 0.12535825 0.11094635 0.08798929 0.13507982
+ 0.12013992 0.14685794 0.12342188 0.18136916]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[0.33847841 0.44779692 0.54207748 0.4334851  0.30769222 0.50233923
- 0.47171954 0.59380598 0.43216148 0.70231356]</t>
+          <t>[0.33505001 0.46883302 0.54766311 0.44261237 0.31618579 0.50389641
+ 0.47326121 0.62734707 0.44245693 0.7199186 ]</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>[0.02122884 0.01458348 0.0135636  0.01109797 0.0079886  0.01157878
- 0.00764588 0.00595104 0.00704473 0.00999358]</t>
+          <t>[0.02075235 0.01530457 0.01383016 0.0112562  0.00823127 0.01156344
+ 0.00762561 0.00629216 0.00725887 0.01026967]</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>[36.36363636 50.         61.36363636 36.36363636 45.45454545 38.63636364
- 45.45454545 56.81818182 59.09090909 52.27272727]</t>
+          <t>[38.63636364 50.         61.36363636 40.90909091 45.45454545 36.36363636
+ 47.72727273 52.27272727 61.36363636 56.81818182]</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[3. 4. 4. 4. 4. 4. 4. 4. 4. 5.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>eTS &amp; 0.12 $\pm$ 0.02 &amp; 0.48 $\pm$ 0.11 &amp; 0.01 $\pm$ 0.43 &amp; 48.18 $\pm$ 8.79 &amp; 4 $\pm$ 0</t>
+          <t>eTS &amp; 0.13 $\pm$ 0.03 &amp; 0.49 $\pm$ 0.12 &amp; 0.01 $\pm$ 0.42 &amp; 49.09 $\pm$ 8.52 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1621,66 +1621,66 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.15 (0.03)</t>
+          <t>0.13 (0.03)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.57 (0.14)</t>
+          <t>0.49 (0.12)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.01 (0.01)</t>
+          <t>0.01 (0.00)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>49.09 (9.97)</t>
+          <t>49.09 (8.52)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>47 (24)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>omega: 250, r: 0.3 \\</t>
+          <t>omega: 50, r: 0.1 \\</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[0.10828203 0.15066112 0.14069383 0.12886621 0.15575077 0.13356101
- 0.11927237 0.21117854 0.12216225 0.18508301]</t>
+          <t>[0.08720635 0.13334578 0.12535825 0.11094635 0.08798929 0.13507982
+ 0.12013992 0.14685794 0.12342188 0.18136916]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[0.41602354 0.52971236 0.61466095 0.51410232 0.55968377 0.49823072
- 0.4698437  0.90211148 0.43794128 0.73466017]</t>
+          <t>[0.33505001 0.46883302 0.54766311 0.44261237 0.31618579 0.50389641
+ 0.47326121 0.62734707 0.44245693 0.7199186 ]</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>[0.0282193  0.01763306 0.01616832 0.0140663  0.01602842 0.01183708
- 0.00792776 0.0093589  0.0072099  0.01090291]</t>
+          <t>[0.02075235 0.01530457 0.01383016 0.0112562  0.00823127 0.01156344
+ 0.00762561 0.00629216 0.00725887 0.01026967]</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>[38.63636364 52.27272727 63.63636364 40.90909091 43.18181818 34.09090909
- 43.18181818 54.54545455 63.63636364 56.81818182]</t>
+          <t>[38.63636364 50.         61.36363636 40.90909091 45.45454545 36.36363636
+ 47.72727273 52.27272727 61.36363636 56.81818182]</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[54. 99. 32. 77. 23. 55. 18. 50. 29. 31.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Simpl\_eTS &amp; 0.15 $\pm$ 0.03 &amp; 0.57 $\pm$ 0.14 &amp; 0.01 $\pm$ 0.59 &amp; 49.09 $\pm$ 9.97 &amp; 47 $\pm$ 24</t>
+          <t>Simpl\_eTS &amp; 0.13 $\pm$ 0.03 &amp; 0.49 $\pm$ 0.12 &amp; 0.01 $\pm$ 0.42 &amp; 49.09 $\pm$ 8.52 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1695,12 +1695,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.13 (0.03)</t>
+          <t>0.14 (0.04)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.51 (0.11)</t>
+          <t>0.53 (0.16)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1710,51 +1710,51 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>49.09 (9.71)</t>
+          <t>48.64 (7.75)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>4 (0)</t>
+          <t>5 (2)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>mu: 0.1, omega: 50 \\</t>
+          <t>mu: 0.7, omega: 50 \\</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[0.10758338 0.16188492 0.12476153 0.12141246 0.08848949 0.13462968
- 0.11942406 0.1472218  0.12227103 0.18076265]</t>
+          <t>[0.10396537 0.14660974 0.12810166 0.11694062 0.09449818 0.13441701
+ 0.11826703 0.21713713 0.12206947 0.18522307]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[0.41333931 0.56917431 0.54505619 0.48436614 0.31798322 0.50221724
- 0.47044124 0.62890138 0.43833125 0.71751113]</t>
+          <t>[0.39943877 0.51546802 0.55964848 0.46652606 0.33957519 0.50142388
+ 0.46588342 0.92756538 0.43760868 0.73521613]</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>[0.02779062 0.01907636 0.01386081 0.01296175 0.00833653 0.01153973
- 0.00754889 0.00632926 0.00723411 0.01026872]</t>
+          <t>[0.02600005 0.01688517 0.01417071 0.01236731 0.0092234  0.01153879
+ 0.0073708  0.00954124 0.00733582 0.01088368]</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>[36.36363636 54.54545455 63.63636364 40.90909091 45.45454545 34.09090909
- 45.45454545 52.27272727 61.36363636 56.81818182]</t>
+          <t>[36.36363636 52.27272727 59.09090909 43.18181818 47.72727273 36.36363636
+ 47.72727273 50.         59.09090909 54.54545455]</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[3. 4. 4. 4. 4. 4. 4. 4. 4. 4.]</t>
+          <t>[3. 3. 3. 4. 4. 6. 7. 7. 7. 8.]</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>exTS &amp; 0.13 $\pm$ 0.03 &amp; 0.51 $\pm$ 0.11 &amp; 0.01 $\pm$ 0.63 &amp; 49.09 $\pm$ 9.71 &amp; 4 $\pm$ 0</t>
+          <t>exTS &amp; 0.14 $\pm$ 0.04 &amp; 0.53 $\pm$ 0.16 &amp; 0.01 $\pm$ 0.53 &amp; 48.64 $\pm$ 7.75 &amp; 5 $\pm$ 2</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.30 (0.40)</t>
+          <t>0.13 (0.03)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.15 (1.52)</t>
+          <t>0.50 (0.12)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.05 (0.11)</t>
+          <t>0.01 (0.01)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>49.09 (8.39)</t>
+          <t>47.05 (8.98)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1794,31 +1794,31 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>alpha: 0.1, beta: 0.005, lambda1: 0.001, r: 0.1, s: 10000 \\</t>
+          <t>alpha: 0.9, beta: 0.005, lambda1: 0.001, omega: 10000, sigma: 0.1 \\</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>[1.47493604 0.13437885 0.14339626 0.28698489 0.08639222 0.15234112
- 0.14861624 0.20841426 0.11911027 0.19826781]</t>
+          <t>[0.09245103 0.1781288  0.11040898 0.1128733  0.08449386 0.14911607
+ 0.11995725 0.14030659 0.11913713 0.18040336]</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>[5.6667584  0.47246522 0.62646728 1.14490527 0.31044678 0.56828728
- 0.58543655 0.89030307 0.42700018 0.78699531]</t>
+          <t>[0.35520026 0.62628651 0.48235297 0.45029979 0.30362509 0.5562567
+ 0.4725416  0.59936103 0.42709647 0.71608496]</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>[0.38579131 0.01541667 0.01605687 0.03363834 0.00873188 0.01288452
- 0.00936891 0.00911489 0.0067859  0.01196706]</t>
+          <t>[0.02098714 0.0211003  0.01218989 0.01190156 0.00856042 0.01262761
+ 0.00770577 0.00595485 0.00687323 0.01020442]</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>[61.36363636 47.72727273 56.81818182 36.36363636 40.90909091 40.90909091
- 43.18181818 56.81818182 59.09090909 47.72727273]</t>
+          <t>[34.09090909 40.90909091 61.36363636 36.36363636 43.18181818 45.45454545
+ 43.18181818 56.81818182 59.09090909 50.        ]</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>ePL &amp; 0.30 $\pm$ 0.40 &amp; 1.15 $\pm$ 1.52 &amp; 0.05 $\pm$ 11.18 &amp; 49.09 $\pm$ 8.39 &amp; 1 $\pm$ 0</t>
+          <t>ePL &amp; 0.13 $\pm$ 0.03 &amp; 0.50 $\pm$ 0.12 &amp; 0.01 $\pm$ 0.51 &amp; 47.05 $\pm$ 8.98 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1843,66 +1843,66 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.36 (0.24)</t>
+          <t>0.21 (0.10)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.43 (1.05)</t>
+          <t>0.84 (0.44)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.03 (0.02)</t>
+          <t>0.02 (0.01)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>48.18 (5.06)</t>
+          <t>49.32 (7.33)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>5 (1)</t>
+          <t>12 (4)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>alpha: 0.01, lambda1: 0.1, omega: 10000, sigma: 0.003, w: 10 \\</t>
+          <t>alpha: 0.01, lambda1: 0.1, omega: 10000, sigma: 0.001, w: 10 \\</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>[0.15330573 0.12050887 0.54115361 0.14114499 0.36014277 0.38671683
- 0.33419357 0.9443464  0.14377991 0.44446156]</t>
+          <t>[0.1356498  0.17926198 0.45533706 0.26800998 0.31912225 0.15189649
+ 0.1202308  0.17864782 0.13511615 0.18494067]</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[0.58900625 0.42369948 2.36418322 0.56308762 1.29415776 1.44259316
- 1.31647206 4.03405452 0.51543874 1.76422573]</t>
+          <t>[0.5211715  0.63027068 1.98926923 1.06920623 1.14675226 0.56662865
+ 0.47361919 0.76314691 0.48437992 0.73409519]</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>[0.03803215 0.01363593 0.06304944 0.01538839 0.03711327 0.03507366
- 0.02148293 0.04695532 0.00890803 0.02666491]</t>
+          <t>[0.03249706 0.02128792 0.05242954 0.02527578 0.03312276 0.01304774
+ 0.00779283 0.00771138 0.00848185 0.01090276]</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>[45.45454545 54.54545455 54.54545455 40.90909091 45.45454545 43.18181818
- 47.72727273 47.72727273 56.81818182 45.45454545]</t>
+          <t>[47.72727273 50.         65.90909091 43.18181818 50.         36.36363636
+ 45.45454545 54.54545455 47.72727273 52.27272727]</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[3. 3. 4. 4. 5. 6. 6. 6. 7. 7.]</t>
+          <t>[ 6.  6.  8. 11. 12. 15. 15. 15. 16. 17.]</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>eMG &amp; 0.36 $\pm$ 0.24 &amp; 1.43 $\pm$ 1.05 &amp; 0.03 $\pm$ 1.59 &amp; 48.18 $\pm$ 5.06 &amp; 5 $\pm$ 1</t>
+          <t>eMG &amp; 0.21 $\pm$ 0.10 &amp; 0.84 $\pm$ 0.44 &amp; 0.02 $\pm$ 1.40 &amp; 49.32 $\pm$ 7.33 &amp; 12 $\pm$ 4</t>
         </is>
       </c>
     </row>
@@ -1917,66 +1917,66 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.16 (0.05)</t>
+          <t>0.13 (0.03)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.64 (0.22)</t>
+          <t>0.49 (0.11)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.02 (0.01)</t>
+          <t>0.01 (0.00)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>46.59 (6.20)</t>
+          <t>48.18 (8.43)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3 (1)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>alpha: 0.001, beta: 0.01, e\_utility: 0.05, lambda1: 0.75, omega: 10000, pi: 0.5, sigma: 0.1 \\</t>
+          <t>alpha: 0.001, beta: 0.01, e\_utility: 0.03, lambda1: 0.25, omega: 100, pi: 0.5, sigma: 0.5 \\</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[0.23030633 0.17212271 0.13840289 0.12093186 0.07896475 0.15355458
- 0.14768099 0.25092434 0.12978091 0.21722006]</t>
+          <t>[0.0863939  0.13971353 0.12284907 0.1108219  0.08840008 0.13468177
+ 0.12050407 0.14408543 0.12245778 0.18098731]</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[0.88484539 0.60516956 0.60465235 0.48244882 0.28375648 0.57281394
- 0.58175237 1.07189743 0.46525352 0.86222352]</t>
+          <t>[0.33192853 0.49122151 0.53670104 0.44211585 0.31766194 0.50241155
+ 0.47469567 0.61550347 0.43900073 0.71840288]</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>[0.04751083 0.02098267 0.01502383 0.01269892 0.00714394 0.01299096
- 0.00951019 0.01112824 0.00799339 0.0129597 ]</t>
+          <t>[0.02040711 0.0161901  0.01354516 0.01128416 0.00827407 0.01150685
+ 0.00766411 0.00619873 0.00722772 0.01021441]</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>[40.90909091 45.45454545 56.81818182 40.90909091 40.90909091 38.63636364
- 47.72727273 56.81818182 47.72727273 50.        ]</t>
+          <t>[36.36363636 47.72727273 61.36363636 40.90909091 45.45454545 36.36363636
+ 47.72727273 50.         59.09090909 56.81818182]</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>[2. 2. 3. 3. 3. 4. 4. 4. 3. 3.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>ePL+ &amp; 0.16 $\pm$ 0.05 &amp; 0.64 $\pm$ 0.22 &amp; 0.02 $\pm$ 1.12 &amp; 46.59 $\pm$ 6.20 &amp; 3 $\pm$ 1</t>
+          <t>ePL+ &amp; 0.13 $\pm$ 0.03 &amp; 0.49 $\pm$ 0.11 &amp; 0.01 $\pm$ 0.42 &amp; 48.18 $\pm$ 8.43 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1991,66 +1991,66 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.98 (0.51)</t>
+          <t>1.09 (0.87)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3.75 (1.88)</t>
+          <t>4.24 (3.33)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.06 (0.04)</t>
+          <t>0.09 (0.07)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>49.09 (9.44)</t>
+          <t>52.05 (8.94)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>32 (3)</t>
+          <t>13 (4)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>alpha: 0.05, beta: 0.25, e\_utility: 0.03, lambda1: 1e-07, sigma: 1 \\</t>
+          <t>alpha: 0.1, beta: 0.25, e\_utility: 0.05, lambda1: 1e-07, sigma: 0.5 \\</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>[0.26249853 1.59092071 1.05156757 1.21157473 1.55653672 0.65144201
- 0.32850118 1.18674814 1.5952996  0.34471562]</t>
+          <t>[0.26783386 1.77199222 2.2193736  1.0878868  2.92387676 0.42728025
+ 0.29849043 0.79752222 0.31292779 0.83304573]</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>[1.008529   5.59354892 4.59407153 4.83348883 5.59334864 2.43011351
- 1.29404831 5.06954513 5.71901338 1.36829868]</t>
+          <t>[ 1.02902753  6.23018177  9.6959638   4.3400449  10.50682704  1.59390934
+  1.17582844  3.40685169  1.12181953  3.30665424]</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>[0.06216739 0.10167971 0.09279834 0.07834102 0.12427652 0.0399004
- 0.01851951 0.0326715  0.0270058  0.01923484]</t>
+          <t>[0.06301531 0.14613898 0.18541495 0.08045995 0.24101949 0.02696422
+ 0.019622   0.03026769 0.0184695  0.04578231]</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>[43.18181818 54.54545455 63.63636364 45.45454545 31.81818182 40.90909091
- 52.27272727 50.         63.63636364 45.45454545]</t>
+          <t>[38.63636364 56.81818182 40.90909091 40.90909091 54.54545455 59.09090909
+ 47.72727273 63.63636364 54.54545455 63.63636364]</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>[23. 34. 33. 33. 33. 33. 33. 33. 33. 33.]</t>
+          <t>[21. 17. 15. 13. 13. 13. 11. 11.  8.  7.]</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>ePL-KRLS-DISCO &amp; 0.98 $\pm$ 0.51 &amp; 3.75 $\pm$ 1.88 &amp; 0.06 $\pm$ 3.59 &amp; 49.09 $\pm$ 9.44 &amp; 32 $\pm$ 3</t>
+          <t>ePL-KRLS-DISCO &amp; 1.09 $\pm$ 0.87 &amp; 4.24 $\pm$ 3.33 &amp; 0.09 $\pm$ 7.43 &amp; 52.05 $\pm$ 8.94 &amp; 13 $\pm$ 4</t>
         </is>
       </c>
     </row>
@@ -2065,12 +2065,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.36 (0.66)</t>
+          <t>1.34 (0.66)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5.34 (2.79)</t>
+          <t>5.25 (2.82)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2080,7 +2080,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>51.14 (8.27)</t>
+          <t>50.45 (7.66)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2095,25 +2095,25 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>[0.23747429 0.98126663 1.18147609 0.79151423 1.51736119 1.12015388
- 1.36153801 2.74484994 1.6902156  2.01226023]</t>
+          <t>[0.23026613 0.87166819 1.15705808 0.79146552 1.40296726 1.12015185
+ 1.36153797 2.74484937 1.69021545 2.01225956]</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>[ 0.91238496  3.45005435  5.16161378  3.15768819  5.45257303  4.17857774
-  5.36343877 11.72543707  6.05927917  7.98737518]</t>
+          <t>[ 0.88469093  3.06471507  5.05493677  3.15749384  5.04150328  4.17857018
+  5.36343861 11.72543467  6.05927862  7.98737252]</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>[0.05415363 0.11711379 0.14493561 0.09892625 0.17935307 0.11940991
- 0.11065067 0.14294585 0.12444015 0.13724087]</t>
+          <t>[0.0541039  0.1065496  0.1425304  0.0989223  0.16827278 0.11940974
+ 0.11065066 0.14294582 0.12444014 0.13724082]</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>[47.72727273 59.09090909 40.90909091 59.09090909 52.27272727 63.63636364
+          <t>[47.72727273 54.54545455 40.90909091 54.54545455 54.54545455 63.63636364
  59.09090909 45.45454545 38.63636364 45.45454545]</t>
         </is>
       </c>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>NMR &amp; 1.36 $\pm$ 0.66 &amp; 5.34 $\pm$ 2.79 &amp; 0.12 $\pm$ 3.13 &amp; 51.14 $\pm$ 8.27 &amp; 2 $\pm$ 0</t>
+          <t>NMR &amp; 1.34 $\pm$ 0.66 &amp; 5.25 $\pm$ 2.82 &amp; 0.12 $\pm$ 2.96 &amp; 50.45 $\pm$ 7.66 &amp; 2 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2213,12 +2213,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.13 (0.03)</t>
+          <t>0.12 (0.02)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.49 (0.11)</t>
+          <t>0.48 (0.10)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2228,51 +2228,51 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>47.95 (8.71)</t>
+          <t>47.27 (7.99)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>14 (1)</t>
+          <t>8 (0)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: min, rules: 15 \\</t>
+          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 8 \\</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>[0.0855251  0.14568423 0.12268311 0.11099285 0.09069691 0.13480757
- 0.12001112 0.14542505 0.12224532 0.18063996]</t>
+          <t>[0.09151001 0.13033858 0.11296439 0.11183207 0.09405722 0.13462041
+ 0.12082651 0.13584149 0.11944421 0.17984432]</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>[0.32859057 0.51221402 0.53597599 0.44279786 0.32591548 0.50288082
- 0.47275382 0.62122605 0.43823907 0.71702411]</t>
+          <t>[0.35158481 0.45825995 0.49351701 0.44614588 0.33799062 0.50218267
+ 0.47596583 0.58028704 0.42819734 0.71386596]</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>[0.02038017 0.01690447 0.01360221 0.01134197 0.00857365 0.01152305
- 0.00761226 0.00625701 0.00721373 0.01022352]</t>
+          <t>[0.0228358  0.01526918 0.01227564 0.01161883 0.00892352 0.01159907
+ 0.00773551 0.00581764 0.00696409 0.01018061]</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>[36.36363636 50.         59.09090909 36.36363636 47.72727273 36.36363636
- 45.45454545 52.27272727 59.09090909 56.81818182]</t>
+          <t>[36.36363636 50.         61.36363636 36.36363636 45.45454545 38.63636364
+ 45.45454545 54.54545455 54.54545455 50.        ]</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>[12. 13. 14. 14. 14. 14. 14. 14. 14. 14.]</t>
+          <t>[8. 8. 8. 8. 8. 8. 8. 8. 8. 8.]</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>NTSK-wRLS &amp; 0.13 $\pm$ 0.03 &amp; 0.49 $\pm$ 0.11 &amp; 0.01 $\pm$ 0.43 &amp; 47.95 $\pm$ 8.71 &amp; 14 $\pm$ 1</t>
+          <t>NTSK-wRLS &amp; 0.12 $\pm$ 0.02 &amp; 0.48 $\pm$ 0.10 &amp; 0.01 $\pm$ 0.47 &amp; 47.27 $\pm$ 7.99 &amp; 8 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2287,66 +2287,66 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.91 (0.48)</t>
+          <t>1.18 (1.13)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3.58 (2.02)</t>
+          <t>4.67 (4.76)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.08 (0.03)</t>
+          <t>0.09 (0.07)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>51.36 (8.21)</t>
+          <t>47.05 (6.67)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3 (0)</t>
+          <t>17 (1)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>error\_metric: MAE, fuzzy\_operator: prod, num\_generations: 10, num\_parents\_mating: 5, parallel\_processing: 10, rules: 3, sol\_per\_pop: 10 \\</t>
+          <t>error\_metric: RMSE, fuzzy\_operator: prod, num\_generations: 10, num\_parents\_mating: 5, parallel\_processing: 10, rules: 17, sol\_per\_pop: 10 \\</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>[0.1511056  0.70327448 0.79209793 0.5286734  1.05540492 0.62268791
- 0.74968445 1.88262718 1.13784184 1.52023263]</t>
+          <t>[0.19213729 1.53333917 1.47991622 0.21361305 1.89209381 0.15305994
+ 0.1527041  4.00217404 1.18072633 1.00316361]</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>[0.58055325 2.47265637 3.46050473 2.10910388 3.79255278 2.32285036
- 2.95319454 8.04219794 4.07906622 6.03434298]</t>
+          <t>[ 0.73819853  5.39109687  6.46543423  0.85219366  6.79915878  0.57096873
+  0.60153964 17.09646826  4.23280347  3.98191248]</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>[0.03736584 0.08383413 0.09935368 0.06123444 0.12887071 0.06153361
- 0.05823042 0.09760044 0.0822323  0.1030008 ]</t>
+          <t>[0.05103637 0.18344191 0.14319548 0.02005692 0.21245348 0.01413402
+ 0.01016064 0.17197818 0.0452986  0.04495626]</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>[40.90909091 59.09090909 52.27272727 47.72727273 61.36363636 40.90909091
- 38.63636364 56.81818182 59.09090909 56.81818182]</t>
+          <t>[52.27272727 45.45454545 59.09090909 43.18181818 36.36363636 36.36363636
+ 50.         47.72727273 50.         50.        ]</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>[3. 3. 3. 3. 3. 3. 3. 3. 3. 3.]</t>
+          <t>[14. 17. 17. 17. 17. 17. 17. 17. 17. 17.]</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>GEN-NMR &amp; 0.91 $\pm$ 0.48 &amp; 3.58 $\pm$ 2.02 &amp; 0.08 $\pm$ 2.57 &amp; 51.36 $\pm$ 8.21 &amp; 3 $\pm$ 0</t>
+          <t>GEN-NMR &amp; 1.18 $\pm$ 1.13 &amp; 4.67 $\pm$ 4.76 &amp; 0.09 $\pm$ 7.47 &amp; 47.05 $\pm$ 6.67 &amp; 17 $\pm$ 1</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2361,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.14 (0.03)</t>
+          <t>0.13 (0.03)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.55 (0.15)</t>
+          <t>0.51 (0.14)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>44.77 (5.84)</t>
+          <t>47.95 (8.41)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2386,31 +2386,31 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>adaptive\_filter: RLS, error\_metric: CPPM, fuzzy\_operator: minmax, lambda1: 0.97, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 1, sol\_per\_pop: 5 \\</t>
+          <t>adaptive\_filter: RLS, error\_metric: MAE, fuzzy\_operator: max, lambda1: 0.96, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 1, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>[0.0871016  0.15682352 0.16097341 0.13194244 0.08521633 0.14768475
- 0.12619368 0.16881354 0.15331987 0.19808154]</t>
+          <t>[0.0929053  0.14854172 0.12007313 0.11463909 0.08352975 0.13893019
+ 0.12074658 0.15810582 0.132274   0.2089886 ]</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>[0.33464755 0.55137884 0.70325804 0.52637471 0.30622125 0.55091735
- 0.49710847 0.72113689 0.5496387  0.78625593]</t>
+          <t>[0.35694558 0.52226071 0.52457355 0.45734428 0.30016059 0.51825967
+ 0.47565097 0.67539569 0.47419103 0.82954996]</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>[0.02031684 0.01826876 0.01755254 0.01414211 0.00809293 0.01260916
- 0.0082138  0.00741908 0.00891913 0.01111458]</t>
+          <t>[0.02225065 0.01731838 0.01327853 0.0122873  0.00790284 0.01184857
+ 0.00763159 0.00673701 0.0076777  0.01234632]</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>[38.63636364 47.72727273 47.72727273 45.45454545 43.18181818 34.09090909
- 45.45454545 47.72727273 40.90909091 56.81818182]</t>
+          <t>[38.63636364 45.45454545 59.09090909 38.63636364 43.18181818 36.36363636
+ 47.72727273 59.09090909 54.54545455 56.81818182]</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>GEN-NTSK-RLS &amp; 0.14 $\pm$ 0.03 &amp; 0.55 $\pm$ 0.15 &amp; 0.01 $\pm$ 0.45 &amp; 44.77 $\pm$ 5.84 &amp; 1 $\pm$ 0</t>
+          <t>GEN-NTSK-RLS &amp; 0.13 $\pm$ 0.03 &amp; 0.51 $\pm$ 0.14 &amp; 0.01 $\pm$ 0.47 &amp; 47.95 $\pm$ 8.41 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.51 (0.12)</t>
+          <t>0.49 (0.12)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2450,51 +2450,51 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>48.86 (7.69)</t>
+          <t>48.86 (7.89)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>16 (1)</t>
+          <t>17 (1)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: min, rules: 15 \\</t>
+          <t>adaptive\_filter: wRLS, error\_metric: MAE, fuzzy\_operator: max, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 19, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>[0.08570091 0.16938015 0.12126284 0.11244229 0.09346375 0.14193178
- 0.1202042  0.15600115 0.12406227 0.18183505]</t>
+          <t>[0.08053179 0.15811946 0.12483073 0.11268669 0.08879235 0.1344772
+ 0.12050984 0.14765811 0.12181407 0.18081398]</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>[0.32926603 0.59552696 0.52977115 0.44858032 0.335858   0.52945669
- 0.47351441 0.66640498 0.44475268 0.72176787]</t>
+          <t>[0.30940609 0.55593526 0.54535848 0.44955533 0.31907155 0.50164843
+ 0.4747184  0.63076522 0.43669308 0.71771488]</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>[0.02092768 0.02021163 0.01344676 0.0115362  0.00887612 0.01217839
- 0.00757937 0.00674373 0.00734516 0.01028719]</t>
+          <t>[0.01919181 0.01837713 0.0140856  0.01152779 0.00839022 0.01148982
+ 0.00766099 0.00628523 0.00720012 0.01020746]</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>[36.36363636 45.45454545 61.36363636 43.18181818 50.         40.90909091
- 47.72727273 47.72727273 59.09090909 56.81818182]</t>
+          <t>[40.90909091 52.27272727 59.09090909 38.63636364 45.45454545 36.36363636
+ 47.72727273 54.54545455 59.09090909 54.54545455]</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>[14. 15. 16. 16. 16. 16. 16. 16. 16. 16.]</t>
+          <t>[14. 16. 17. 18. 18. 18. 18. 18. 18. 18.]</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>GEN-NTSK-wRLS &amp; 0.13 $\pm$ 0.03 &amp; 0.51 $\pm$ 0.12 &amp; 0.01 $\pm$ 0.48 &amp; 48.86 $\pm$ 7.69 &amp; 16 $\pm$ 1</t>
+          <t>GEN-NTSK-wRLS &amp; 0.13 $\pm$ 0.03 &amp; 0.49 $\pm$ 0.12 &amp; 0.01 $\pm$ 0.43 &amp; 48.86 $\pm$ 7.89 &amp; 17 $\pm$ 1</t>
         </is>
       </c>
     </row>
@@ -2509,22 +2509,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.80 (0.47)</t>
+          <t>0.76 (0.42)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3.10 (1.86)</t>
+          <t>2.98 (1.72)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.07 (0.04)</t>
+          <t>0.07 (0.03)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>47.27 (5.73)</t>
+          <t>49.32 (8.51)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2534,31 +2534,31 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>combination: median, n\_estimators: 50 \\</t>
+          <t>combination: mean, n\_estimators: 50 \\</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>[0.13187089 0.93020108 0.82955265 0.33102085 1.56087488 0.32988059
- 0.44345459 1.50764526 0.80249427 1.09105988]</t>
+          <t>[0.13405449 0.947948   0.81109487 0.33757058 1.2331218  0.32738872
+ 0.44342818 1.50779254 0.80434966 1.09109131]</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>[0.50665281 3.27051198 3.6241363  1.32058349 5.60893762 1.2305735
- 1.74687853 6.44035197 2.87687369 4.33080397]</t>
+          <t>[0.51504228 3.33290872 3.54349827 1.34671315 4.43117084 1.22127794
+ 1.74677452 6.44098111 2.88352511 4.33092873]</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>[0.03341814 0.09700158 0.08266597 0.03560566 0.16443685 0.02909483
- 0.03208487 0.07779413 0.05600234 0.07286967]</t>
+          <t>[0.034317   0.09881322 0.09887697 0.03686775 0.13312557 0.02853677
+ 0.03208803 0.07780092 0.0562206  0.07287234]</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>[40.90909091 59.09090909 40.90909091 47.72727273 50.         50.
- 45.45454545 50.         50.         38.63636364]</t>
+          <t>[34.09090909 56.81818182 40.90909091 45.45454545 61.36363636 40.90909091
+ 47.72727273 52.27272727 59.09090909 54.54545455]</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2568,7 +2568,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>R-NMR &amp; 0.80 $\pm$ 0.47 &amp; 3.10 $\pm$ 1.86 &amp; 0.07 $\pm$ 3.96 &amp; 47.27 $\pm$ 5.73 &amp; "-"</t>
+          <t>R-NMR &amp; 0.76 $\pm$ 0.42 &amp; 2.98 $\pm$ 1.72 &amp; 0.07 $\pm$ 3.37 &amp; 49.32 $\pm$ 8.51 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -2583,12 +2583,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.13 (0.03)</t>
+          <t>0.12 (0.03)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.49 (0.11)</t>
+          <t>0.48 (0.12)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>47.50 (8.16)</t>
+          <t>47.95 (9.83)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2608,31 +2608,31 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: min, rules: 15 \\</t>
+          <t>combination: mean, n\_estimators: 50 \\</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>[0.08500058 0.16058666 0.11978676 0.11164304 0.09076173 0.13512551
- 0.11959219 0.14449952 0.12223787 0.18003053]</t>
+          <t>[0.08232212 0.12070756 0.12636302 0.11119011 0.0856109  0.13639109
+ 0.11906288 0.14275233 0.12058178 0.17863876]</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>[0.32657535 0.56460975 0.52332247 0.44539175 0.32614843 0.50406685
- 0.47110353 0.61727239 0.43821236 0.71460507]</t>
+          <t>[0.31628462 0.42439806 0.55205273 0.4435848  0.30763914 0.50878793
+ 0.46901845 0.60980875 0.43227543 0.70908066]</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>[0.02042393 0.01892578 0.01319541 0.01142265 0.00856308 0.01145543
- 0.00758939 0.0061776  0.00720424 0.01019658]</t>
+          <t>[0.01946889 0.01364765 0.01376855 0.01138885 0.00804445 0.01166334
+ 0.00761283 0.00608078 0.00692637 0.010159  ]</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>[38.63636364 45.45454545 59.09090909 36.36363636 47.72727273 36.36363636
- 45.45454545 52.27272727 56.81818182 56.81818182]</t>
+          <t>[34.09090909 50.         61.36363636 36.36363636 45.45454545 36.36363636
+ 45.45454545 54.54545455 63.63636364 52.27272727]</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>R-NTSK &amp; 0.13 $\pm$ 0.03 &amp; 0.49 $\pm$ 0.11 &amp; 0.01 $\pm$ 0.46 &amp; 47.50 $\pm$ 8.16 &amp; "-"</t>
+          <t>R-NTSK &amp; 0.12 $\pm$ 0.03 &amp; 0.48 $\pm$ 0.12 &amp; 0.01 $\pm$ 0.39 &amp; 47.95 $\pm$ 9.83 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -2657,22 +2657,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.17 (0.06)</t>
+          <t>0.16 (0.06)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.66 (0.26)</t>
+          <t>0.64 (0.25)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.02 (0.01)</t>
+          <t>0.01 (0.00)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>49.09 (7.20)</t>
+          <t>49.55 (7.86)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2683,26 +2683,26 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>[0.08922382 0.21948147 0.18004699 0.12770207 0.18285659 0.13305829
- 0.118941   0.30147655 0.12747058 0.20257369]</t>
+          <t>[0.08745906 0.18303195 0.17227935 0.12824689 0.17784239 0.13449153
+ 0.11912394 0.29745306 0.12595423 0.20107579]</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>[0.34280121 0.77167914 0.78658642 0.50945809 0.65708739 0.49635537
- 0.46853834 1.28784613 0.4569712  0.80408689]</t>
+          <t>[0.33602092 0.64352559 0.75265128 0.51163158 0.63906907 0.50170189
+ 0.46925898 1.27065857 0.45153519 0.79814119]</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>[0.02195973 0.0262565  0.0192884  0.013472   0.01847157 0.01132788
- 0.00716139 0.01424747 0.0079627  0.01210138]</t>
+          <t>[0.02159598 0.02150914 0.01874796 0.01354054 0.01793462 0.0115753
+ 0.00730107 0.01403191 0.00775444 0.01217964]</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>[38.63636364 50.         59.09090909 40.90909091 47.72727273 38.63636364
- 50.         52.27272727 56.81818182 56.81818182]</t>
+          <t>[40.90909091 52.27272727 59.09090909 40.90909091 45.45454545 38.63636364
+ 47.72727273 54.54545455 63.63636364 52.27272727]</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>RF-NTSK &amp; 0.17 $\pm$ 0.06 &amp; 0.66 $\pm$ 0.26 &amp; 0.02 $\pm$ 0.58 &amp; 49.09 $\pm$ 7.20 &amp; "-"</t>
+          <t>RF-NTSK &amp; 0.16 $\pm$ 0.06 &amp; 0.64 $\pm$ 0.25 &amp; 0.01 $\pm$ 0.49 &amp; 49.55 $\pm$ 7.86 &amp; "-"</t>
         </is>
       </c>
     </row>
